--- a/Input Files/Micropolis_pop_at_node_kind_old.xlsx
+++ b/Input Files/Micropolis_pop_at_node_kind_old.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\squar\Documents\hydraulic_ABM\Input Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CB1639-D5FA-4873-A121-FD324E005491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2FEEC9-EC37-4FE7-A918-21A2D0348647}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27600" yWindow="510" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-22965" yWindow="4350" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -373,7 +373,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -422,7 +422,9 @@
       <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="1">
+        <v>0</v>
+      </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
@@ -451,7 +453,9 @@
       <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1">
+        <v>0</v>
+      </c>
       <c r="E3" s="1">
         <v>0</v>
       </c>
@@ -480,7 +484,9 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
       <c r="E4" s="1">
         <v>0</v>
       </c>
@@ -614,7 +620,7 @@
         <v>655</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" ref="F8:F25" si="3">E8-(D8-C8)</f>
+        <f t="shared" ref="F8:F22" si="3">E8-(D8-C8)</f>
         <v>612</v>
       </c>
       <c r="G8" s="1">
